--- a/datasets-analysis/desbalanceamento.xlsx
+++ b/datasets-analysis/desbalanceamento.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pedro/Desktop/PEDRO/PUC/Ciência da Computação/TCC/Experimentações/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pedro/Desktop/PEDRO/PUC/Ciência da Computação/TCC/Experimentacoes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD111E61-59FE-3546-9F6D-5ACE6C37E15C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDDB8E3-5C5E-5348-93E3-4958A990771B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{132BD109-1644-4B4A-834C-F14CE87D3216}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{132BD109-1644-4B4A-834C-F14CE87D3216}"/>
   </bookViews>
   <sheets>
     <sheet name="desbalanceamento" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="72">
   <si>
     <t>Current</t>
   </si>
@@ -123,9 +123,6 @@
   </si>
   <si>
     <t>Base</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>Contagem</t>
@@ -486,7 +483,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -590,6 +587,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,9 +605,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,6 +679,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -993,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72840E9F-960B-2C40-A2AF-B01207F842D0}">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1005,23 +1011,23 @@
     <col min="2" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1032,12 +1038,11 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
@@ -1051,9 +1056,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,9 +1070,8 @@
       <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1081,9 +1084,8 @@
       <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -1098,13 +1100,13 @@
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>30</v>
@@ -1112,11 +1114,8 @@
       <c r="K6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1130,26 +1129,24 @@
         <v>27</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="38">
+      <c r="G7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="5">
         <v>1</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5">
-        <v>261655</v>
-      </c>
-      <c r="K7" s="6">
-        <v>0.11768756561186919</v>
-      </c>
-      <c r="L7" s="35">
-        <v>2223302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I7" s="35">
+        <v>1201</v>
+      </c>
+      <c r="J7" s="35">
+        <f>I7/I8*100</f>
+        <v>0.40867159613310239</v>
+      </c>
+      <c r="K7" s="38">
+        <v>295080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -1163,20 +1160,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="5">
+      <c r="G8" s="37"/>
+      <c r="H8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <v>1961647</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0.88231243438813078</v>
-      </c>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I8" s="35">
+        <v>293879</v>
+      </c>
+      <c r="J8" s="35">
+        <v>99.592991729999994</v>
+      </c>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1190,26 +1186,23 @@
         <v>27</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="38">
-        <v>2</v>
-      </c>
-      <c r="H9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="5">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
-      <c r="J9" s="5">
+      <c r="I9" s="66">
         <v>10026</v>
       </c>
-      <c r="K9" s="6">
+      <c r="J9" s="6">
         <v>6.6839999999999997E-2</v>
       </c>
-      <c r="L9" s="35">
+      <c r="K9" s="38">
         <v>150000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1223,20 +1216,19 @@
         <v>27</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
       <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
         <v>139974</v>
       </c>
-      <c r="K10" s="6">
+      <c r="J10" s="6">
         <v>0.93315999999999999</v>
       </c>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K10" s="38"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1250,26 +1242,23 @@
         <v>27</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="38">
-        <v>3</v>
-      </c>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="37" t="s">
         <v>24</v>
       </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
       <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
         <v>24825</v>
       </c>
-      <c r="K11" s="6">
+      <c r="J11" s="6">
         <v>8.0728819999999993E-2</v>
       </c>
-      <c r="L11" s="35">
+      <c r="K11" s="38">
         <v>307511</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1281,82 +1270,74 @@
         <v>100</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
       <c r="I12" s="5">
+        <v>282686</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.91927117999999997</v>
+      </c>
+      <c r="K12" s="38"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="4"/>
+      <c r="G13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="5">
+        <v>300</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="K13" s="38">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F14" s="4"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="5">
         <v>0</v>
       </c>
-      <c r="J12" s="5">
-        <v>282686</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0.91927117999999997</v>
-      </c>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F13" s="4"/>
-      <c r="G13" s="38">
-        <v>4</v>
-      </c>
-      <c r="H13" s="38" t="s">
+      <c r="I14" s="5">
+        <v>700</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="5">
+      <c r="H15" s="5">
         <v>1</v>
       </c>
-      <c r="J13" s="5">
-        <v>300</v>
-      </c>
-      <c r="K13" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="L13" s="35">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F14" s="4"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>700</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="38">
-        <v>5</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>34</v>
-      </c>
       <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
         <v>307</v>
       </c>
-      <c r="K15" s="6">
+      <c r="J15" s="6">
         <v>0.44492753999999995</v>
       </c>
-      <c r="L15" s="35">
+      <c r="K15" s="38">
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>3</v>
       </c>
@@ -1367,20 +1348,19 @@
         <v>5</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="36"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
       <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
         <v>383</v>
       </c>
-      <c r="K16" s="6">
+      <c r="J16" s="6">
         <v>0.55507245999999999</v>
       </c>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1392,26 +1372,23 @@
         <v>11.768756561186919</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="38">
-        <v>6</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>35</v>
+      <c r="G17" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
       </c>
       <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
         <v>6636</v>
       </c>
-      <c r="K17" s="6">
+      <c r="J17" s="6">
         <v>0.22120000000000001</v>
       </c>
-      <c r="L17" s="35">
+      <c r="K17" s="38">
         <v>30000</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="32">
         <v>0</v>
       </c>
@@ -1424,20 +1401,19 @@
         <v>88.231243438813081</v>
       </c>
       <c r="F18" s="4"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="37"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
       <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
         <v>23364</v>
       </c>
-      <c r="K18" s="6">
+      <c r="J18" s="6">
         <v>0.77879999999999994</v>
       </c>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>2</v>
       </c>
@@ -1449,22 +1425,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="32"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="F21" s="32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>3</v>
       </c>
@@ -1475,50 +1451,50 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="32">
         <v>1</v>
       </c>
-      <c r="B23" s="32">
-        <v>298716</v>
+      <c r="B23" s="34">
+        <v>293879</v>
       </c>
       <c r="C23" s="32">
         <f>B23/B25*100</f>
-        <v>99.572000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>99.592991731055974</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="32">
         <v>0</v>
       </c>
-      <c r="B24" s="32">
-        <v>1284</v>
+      <c r="B24" s="34">
+        <v>1201</v>
       </c>
       <c r="C24" s="32">
         <f>B24/B25*100</f>
-        <v>0.42799999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>0.40700826894401515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="32">
         <f>SUM(B23:B24)</f>
-        <v>300000</v>
+        <v>295080</v>
       </c>
       <c r="C25" s="32">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="34" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="32" t="s">
         <v>8</v>
       </c>
@@ -1529,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="32">
         <v>0</v>
       </c>
@@ -1540,7 +1516,7 @@
         <v>93.316000000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="32">
         <v>1</v>
       </c>
@@ -1551,7 +1527,7 @@
         <v>6.6840000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="32" t="s">
         <v>2</v>
       </c>
@@ -1563,17 +1539,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="32"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -1626,11 +1602,11 @@
       <c r="C38" s="32"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="34" t="s">
+      <c r="A39" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="32" t="s">
@@ -1683,11 +1659,11 @@
       <c r="C44" s="32"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="32" t="s">
@@ -1739,11 +1715,11 @@
       <c r="C50" s="32"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="34" t="s">
+      <c r="A51" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="34"/>
-      <c r="C51" s="34"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="32" t="s">
@@ -1791,26 +1767,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="H17:H18"/>
+  <mergeCells count="20">
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A51:C51"/>
@@ -1818,19 +1775,20 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
   </mergeCells>
-  <conditionalFormatting sqref="K7:K18">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -1852,144 +1810,144 @@
   <sheetData>
     <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="10" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="43"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="41"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="10" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="42"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="13" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="C6" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="44"/>
+      <c r="C7" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="42"/>
-      <c r="C7" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="D7" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="43" t="s">
+      <c r="C10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="44"/>
+      <c r="C11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="D11" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2023,103 +1981,103 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="56" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="46"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="61"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="59"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="51" t="s">
+      <c r="C4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="D4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="54">
+      <c r="E4" s="56">
         <v>0.17814267288878699</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="52"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>46</v>
       </c>
       <c r="F5" s="30">
         <v>0.18666666666666601</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="52"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="29">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="52"/>
-      <c r="C7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="62">
+        <v>0.27142857142857102</v>
+      </c>
+      <c r="F7" s="63"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="60">
-        <v>0.27142857142857102</v>
-      </c>
-      <c r="F7" s="61"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="21" t="s">
+      <c r="E8" s="64">
+        <v>0.22220000000000001</v>
+      </c>
+      <c r="F8" s="65"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="62">
-        <v>0.22220000000000001</v>
-      </c>
-      <c r="F8" s="63"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="52"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="51" t="s">
+      <c r="E9" s="28" t="s">
         <v>50</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>51</v>
       </c>
       <c r="F9" s="30">
         <v>0.64516129</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="55"/>
       <c r="E10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="33">
         <v>0.79895561000000004</v>

--- a/datasets-analysis/desbalanceamento.xlsx
+++ b/datasets-analysis/desbalanceamento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Pedro/Documents/GitHub/balanced_ensemble_credit_scoring/datasets-analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D659F9-90E5-D44E-8FF8-BE3E1F992C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846F822C-0A83-D442-BA85-0CDE6C80EC53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" activeTab="1" xr2:uid="{132BD109-1644-4B4A-834C-F14CE87D3216}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" xr2:uid="{132BD109-1644-4B4A-834C-F14CE87D3216}"/>
   </bookViews>
   <sheets>
     <sheet name="desbalanceamento" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>Total</t>
   </si>
@@ -91,12 +91,6 @@
     <t>Base</t>
   </si>
   <si>
-    <t>Contagem</t>
-  </si>
-  <si>
-    <t>Percentual</t>
-  </si>
-  <si>
     <t>Tamanho da base</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t xml:space="preserve">Default of credit card clients Data Set (Taiwan) </t>
   </si>
   <si>
-    <t>Classe (1 crédito ruim e 0 bom)</t>
-  </si>
-  <si>
     <t>Interpretação</t>
   </si>
   <si>
@@ -197,6 +188,12 @@
   </si>
   <si>
     <t>Lending Club 300K (categorizada com 300.000 instâncias mais recentes)</t>
+  </si>
+  <si>
+    <t>Percentual da classe minoritária (inadimplentes)</t>
+  </si>
+  <si>
+    <t>Contagem da classe minoritária (inadimplentes)</t>
   </si>
 </sst>
 </file>
@@ -237,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -425,19 +422,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -446,12 +430,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -511,61 +492,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72840E9F-960B-2C40-A2AF-B01207F842D0}">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,531 +864,410 @@
     <col min="1" max="1" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="41" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="33" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="22">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="1">
         <v>293879</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="1">
         <f>B4/B6*100</f>
         <v>99.592991731055974</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="24" t="s">
+      <c r="F4" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="22">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="1">
         <v>1201</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="1">
         <f>B5/B6*100</f>
         <v>0.40700826894401515</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="33" t="s">
+      <c r="E5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="24">
-        <v>1</v>
-      </c>
-      <c r="I5" s="35">
+      <c r="F5" s="34">
         <v>10026</v>
       </c>
-      <c r="J5" s="36">
+      <c r="G5" s="24">
         <v>6.6839999999999997E-2</v>
       </c>
-      <c r="K5" s="39">
+      <c r="H5" s="26">
         <v>150000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="1">
         <f>SUM(B4:B5)</f>
         <v>295080</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="24">
+      <c r="E6" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="35">
+        <v>24825</v>
+      </c>
+      <c r="G6" s="24">
+        <v>8.0728819999999993E-2</v>
+      </c>
+      <c r="H6" s="26">
+        <v>307511</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="35">
+        <v>300</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="E8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="35">
+        <v>307</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0.44492753999999995</v>
+      </c>
+      <c r="H8" s="26">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="35">
+        <v>6636</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0.22120000000000001</v>
+      </c>
+      <c r="H9" s="21">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="24">
+      <c r="B10" s="1">
         <v>139974</v>
       </c>
-      <c r="J6" s="36">
-        <v>0.93315999999999999</v>
-      </c>
-      <c r="K6" s="40"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F7" s="2"/>
-      <c r="G7" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="24">
+      <c r="C10" s="1">
+        <v>93.316000000000003</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="I7" s="24">
-        <v>24825</v>
-      </c>
-      <c r="J7" s="36">
-        <v>8.0728819999999993E-2</v>
-      </c>
-      <c r="K7" s="39">
-        <v>307511</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="24">
+      <c r="B11" s="1">
+        <v>10026</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6.6840000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="24">
-        <v>282686</v>
-      </c>
-      <c r="J8" s="36">
-        <v>0.91927117999999997</v>
-      </c>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="24">
-        <v>1</v>
-      </c>
-      <c r="I9" s="24">
-        <v>300</v>
-      </c>
-      <c r="J9" s="36">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
-        <v>0</v>
-      </c>
-      <c r="B10" s="22">
-        <v>139974</v>
-      </c>
-      <c r="C10" s="22">
-        <v>93.316000000000003</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="24">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
-        <v>700</v>
-      </c>
-      <c r="J10" s="36">
-        <v>0.7</v>
-      </c>
-      <c r="K10" s="40"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="22">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22">
-        <v>10026</v>
-      </c>
-      <c r="C11" s="22">
-        <v>6.6840000000000002</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="24">
-        <v>1</v>
-      </c>
-      <c r="I11" s="24">
-        <v>307</v>
-      </c>
-      <c r="J11" s="36">
-        <v>0.44492753999999995</v>
-      </c>
-      <c r="K11" s="39">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="22">
+      <c r="B12" s="1">
         <f>SUM(B10:B11)</f>
         <v>150000</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="1">
         <v>100</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="24">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>0</v>
       </c>
-      <c r="I12" s="24">
-        <v>383</v>
-      </c>
-      <c r="J12" s="36">
-        <v>0.55507245999999999</v>
-      </c>
-      <c r="K12" s="40"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="24">
+      <c r="B16" s="1">
+        <v>23364</v>
+      </c>
+      <c r="C16" s="1">
+        <v>77.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="I13" s="24">
+      <c r="B17" s="1">
         <v>6636</v>
       </c>
-      <c r="J13" s="36">
-        <v>0.22120000000000001</v>
-      </c>
-      <c r="K13" s="26">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="24">
+      <c r="C17" s="1">
+        <v>22.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="24">
-        <v>23364</v>
-      </c>
-      <c r="J14" s="36">
-        <v>0.77879999999999994</v>
-      </c>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="22">
-        <v>0</v>
-      </c>
-      <c r="B16" s="22">
-        <v>23364</v>
-      </c>
-      <c r="C16" s="22">
-        <v>77.88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="22">
-        <v>1</v>
-      </c>
-      <c r="B17" s="22">
-        <v>6636</v>
-      </c>
-      <c r="C17" s="22">
-        <v>22.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="22">
+      <c r="B18" s="1">
         <f>SUM(B15:B17)</f>
         <v>30000</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-    </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="1">
         <v>307</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="1">
         <v>44.492753999999998</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="1">
         <v>383</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="1">
         <v>55.507246000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="1">
         <f>SUM(B22:B23)</f>
         <v>690</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-    </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="1">
         <v>700</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="1">
         <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="1">
         <v>300</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="1">
         <v>1000</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-    </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="22">
+      <c r="A34" s="1">
         <v>0</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="1">
         <v>282686</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="1">
         <v>91.927117999999993</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="22">
+      <c r="A35" s="1">
         <v>1</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="1">
         <v>24825</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="1">
         <v>8.0728819999999999</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="1">
         <f>SUM(B34:B35)</f>
         <v>307511</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="1">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="G13:G14"/>
+  <mergeCells count="6">
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1429,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D070897-4432-034A-8397-66509341F57F}">
   <dimension ref="B2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+    <sheetView zoomScale="166" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1441,145 +1289,145 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="29"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="30"/>
+      <c r="C7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="30"/>
+      <c r="C11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="30"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="31"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="31"/>
-      <c r="C7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="31"/>
-      <c r="C11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
